--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1940370.122385049</v>
+        <v>-1943229.954620318</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>39.70122005611995</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>187.52558716632</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>28.3359209124385</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>10.59217318861077</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>5.402253317871727</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,28 +817,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>122.3857939088459</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>58.38202023420787</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489921</v>
+        <v>358.3269520356332</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9780130577769</v>
+        <v>309.9780130577771</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.43720189476456</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>63.41124056325456</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361424</v>
+        <v>382.6612299361362</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>31.02349825448103</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075466</v>
+        <v>97.35224439075478</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.478189731062372</v>
+        <v>4.478189731063068</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442028</v>
+        <v>143.059033344203</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>7.996615798457621</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>67.52519318319708</v>
+        <v>116.5978353037444</v>
       </c>
       <c r="J7" t="n">
-        <v>2.017892827655416</v>
+        <v>2.01789282765607</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>143.9062603157855</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4254139074073</v>
+        <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485590306925</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>351.0379797136898</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>155.2018086397058</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>136.0078178912522</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>50.90437071797126</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>63.66938219211096</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>116.8437682257202</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465709</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>38.19083539427159</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.4665281367379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.4877306469552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>250.7811435429985</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>249.3969846839863</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>57.24347904696321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4307,13 +4307,13 @@
         <v>331.1605361513811</v>
       </c>
       <c r="C2" t="n">
-        <v>141.7407511348962</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="D2" t="n">
-        <v>141.7407511348962</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7407511348962</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="F2" t="n">
         <v>141.7407511348962</v>
@@ -4328,49 +4328,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>710.0001061843508</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="T2" t="n">
-        <v>520.5803211678659</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="U2" t="n">
-        <v>520.5803211678659</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="V2" t="n">
-        <v>520.5803211678659</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="W2" t="n">
-        <v>331.1605361513811</v>
+        <v>359.7826784871775</v>
       </c>
       <c r="X2" t="n">
-        <v>331.1605361513811</v>
+        <v>359.7826784871775</v>
       </c>
       <c r="Y2" t="n">
         <v>331.1605361513811</v>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>522.8003424308627</v>
+        <v>397.9640582856523</v>
       </c>
       <c r="C3" t="n">
-        <v>348.3473131497357</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="D3" t="n">
-        <v>348.3473131497357</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="E3" t="n">
-        <v>348.3473131497357</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8127551766207</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
         <v>64.27357399906981</v>
@@ -4413,46 +4413,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>712.2201274473475</v>
+        <v>571.6362168389242</v>
       </c>
       <c r="T3" t="n">
-        <v>522.8003424308627</v>
+        <v>571.6362168389242</v>
       </c>
       <c r="U3" t="n">
-        <v>522.8003424308627</v>
+        <v>571.6362168389242</v>
       </c>
       <c r="V3" t="n">
-        <v>522.8003424308627</v>
+        <v>571.6362168389242</v>
       </c>
       <c r="W3" t="n">
-        <v>522.8003424308627</v>
+        <v>571.6362168389242</v>
       </c>
       <c r="X3" t="n">
-        <v>522.8003424308627</v>
+        <v>566.1793953057204</v>
       </c>
       <c r="Y3" t="n">
-        <v>522.8003424308627</v>
+        <v>566.1793953057204</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>568.4538838350403</v>
+        <v>434.289874127272</v>
       </c>
       <c r="C4" t="n">
-        <v>399.5177009071334</v>
+        <v>434.289874127272</v>
       </c>
       <c r="D4" t="n">
-        <v>399.5177009071334</v>
+        <v>310.6678600779327</v>
       </c>
       <c r="E4" t="n">
-        <v>399.5177009071334</v>
+        <v>310.6678600779327</v>
       </c>
       <c r="F4" t="n">
-        <v>252.6277534092231</v>
+        <v>310.6678600779327</v>
       </c>
       <c r="G4" t="n">
-        <v>252.6277534092231</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="H4" t="n">
-        <v>97.6442475184962</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>285.9838492295951</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>471.6341805242519</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575117</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575117</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575117</v>
       </c>
       <c r="U4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575117</v>
       </c>
       <c r="V4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575117</v>
       </c>
       <c r="W4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575117</v>
       </c>
       <c r="X4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575117</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.10234866528</v>
+        <v>615.9383389575117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.0037793713049</v>
+        <v>813.0555375159881</v>
       </c>
       <c r="C5" t="n">
-        <v>749.0037793713049</v>
+        <v>813.0555375159881</v>
       </c>
       <c r="D5" t="n">
-        <v>749.0037793713049</v>
+        <v>813.0555375159881</v>
       </c>
       <c r="E5" t="n">
-        <v>363.2155267730606</v>
+        <v>813.0555375159881</v>
       </c>
       <c r="F5" t="n">
-        <v>356.2700260238572</v>
+        <v>806.1100367667847</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7220024936559</v>
+        <v>444.1636205691754</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489139</v>
+        <v>131.0545164704106</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489139</v>
+        <v>30.61289839489089</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121632</v>
+        <v>93.38580827121382</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235871</v>
+        <v>238.2046462235817</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190685</v>
+        <v>454.7669823190594</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643146</v>
+        <v>727.4037457643019</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453898</v>
+        <v>1009.065865453882</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831942</v>
+        <v>1261.696156831922</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855787</v>
+        <v>1442.809264855764</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.64491974457</v>
+        <v>1530.644919744545</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.64491974457</v>
+        <v>1530.644919744545</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.64491974457</v>
+        <v>1530.644919744545</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.64491974457</v>
+        <v>1530.644919744545</v>
       </c>
       <c r="U5" t="n">
-        <v>1466.593161599868</v>
+        <v>1530.644919744545</v>
       </c>
       <c r="V5" t="n">
-        <v>1135.530274256297</v>
+        <v>1199.582032400974</v>
       </c>
       <c r="W5" t="n">
-        <v>1135.530274256297</v>
+        <v>1199.582032400974</v>
       </c>
       <c r="X5" t="n">
-        <v>1135.530274256297</v>
+        <v>1199.582032400974</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.0037793713049</v>
+        <v>813.0555375159881</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306.8199236864263</v>
+        <v>561.5916860170565</v>
       </c>
       <c r="C6" t="n">
-        <v>275.4830567627081</v>
+        <v>561.5916860170565</v>
       </c>
       <c r="D6" t="n">
-        <v>275.4830567627081</v>
+        <v>412.6572763558053</v>
       </c>
       <c r="E6" t="n">
-        <v>275.4830567627081</v>
+        <v>412.6572763558053</v>
       </c>
       <c r="F6" t="n">
-        <v>128.9484987895931</v>
+        <v>266.1227183826902</v>
       </c>
       <c r="G6" t="n">
-        <v>128.9484987895931</v>
+        <v>128.9484987895927</v>
       </c>
       <c r="H6" t="n">
-        <v>30.61289839489139</v>
+        <v>30.61289839489089</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489139</v>
+        <v>30.61289839489089</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275363</v>
+        <v>49.18216652275207</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477062</v>
+        <v>387.2759822117704</v>
       </c>
       <c r="L6" t="n">
-        <v>448.375144191521</v>
+        <v>581.3627685184359</v>
       </c>
       <c r="M6" t="n">
-        <v>827.2097618283019</v>
+        <v>827.2097618282862</v>
       </c>
       <c r="N6" t="n">
-        <v>1093.972238426254</v>
+        <v>1093.972238426236</v>
       </c>
       <c r="O6" t="n">
-        <v>1315.787993034626</v>
+        <v>1315.787993034605</v>
       </c>
       <c r="P6" t="n">
-        <v>1474.481625486931</v>
+        <v>1474.481625486908</v>
       </c>
       <c r="Q6" t="n">
-        <v>1530.64491974457</v>
+        <v>1530.644919744545</v>
       </c>
       <c r="R6" t="n">
-        <v>1526.121495773799</v>
+        <v>1526.121495773774</v>
       </c>
       <c r="S6" t="n">
-        <v>1381.617421688746</v>
+        <v>1381.61742168872</v>
       </c>
       <c r="T6" t="n">
-        <v>1185.705040874353</v>
+        <v>1381.61742168872</v>
       </c>
       <c r="U6" t="n">
-        <v>957.5838308886557</v>
+        <v>1153.496211703023</v>
       </c>
       <c r="V6" t="n">
-        <v>722.4317226569131</v>
+        <v>1153.496211703023</v>
       </c>
       <c r="W6" t="n">
-        <v>722.4317226569131</v>
+        <v>1145.418822007611</v>
       </c>
       <c r="X6" t="n">
-        <v>514.5802224513802</v>
+        <v>937.5673218020784</v>
       </c>
       <c r="Y6" t="n">
-        <v>306.8199236864263</v>
+        <v>729.8070230371245</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>269.7946227479018</v>
+        <v>318.8096170988189</v>
       </c>
       <c r="C7" t="n">
-        <v>100.8584398199949</v>
+        <v>318.8096170988189</v>
       </c>
       <c r="D7" t="n">
-        <v>100.8584398199949</v>
+        <v>318.8096170988189</v>
       </c>
       <c r="E7" t="n">
-        <v>100.8584398199949</v>
+        <v>318.8096170988189</v>
       </c>
       <c r="F7" t="n">
-        <v>100.8584398199949</v>
+        <v>318.8096170988189</v>
       </c>
       <c r="G7" t="n">
-        <v>100.8584398199949</v>
+        <v>150.4267651942853</v>
       </c>
       <c r="H7" t="n">
-        <v>100.8584398199949</v>
+        <v>150.4267651942853</v>
       </c>
       <c r="I7" t="n">
-        <v>32.65117397838171</v>
+        <v>32.65117397838188</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489139</v>
+        <v>30.61289839489089</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1668774983391</v>
+        <v>157.1668774983376</v>
       </c>
       <c r="L7" t="n">
-        <v>374.6388343436944</v>
+        <v>374.6388343436915</v>
       </c>
       <c r="M7" t="n">
-        <v>614.3216441132962</v>
+        <v>614.3216441132918</v>
       </c>
       <c r="N7" t="n">
-        <v>853.7399488058509</v>
+        <v>853.7399488058451</v>
       </c>
       <c r="O7" t="n">
-        <v>1058.865208650464</v>
+        <v>1058.865208650457</v>
       </c>
       <c r="P7" t="n">
-        <v>1210.86462270231</v>
+        <v>1210.864622702301</v>
       </c>
       <c r="Q7" t="n">
-        <v>1232.666058086417</v>
+        <v>1232.666058086408</v>
       </c>
       <c r="R7" t="n">
-        <v>1232.666058086417</v>
+        <v>1232.666058086408</v>
       </c>
       <c r="S7" t="n">
-        <v>1232.666058086417</v>
+        <v>1087.306199181574</v>
       </c>
       <c r="T7" t="n">
-        <v>1007.99392282641</v>
+        <v>862.6340639215668</v>
       </c>
       <c r="U7" t="n">
-        <v>1007.99392282641</v>
+        <v>573.4941053047057</v>
       </c>
       <c r="V7" t="n">
-        <v>1007.99392282641</v>
+        <v>318.8096170988189</v>
       </c>
       <c r="W7" t="n">
-        <v>718.5767527894493</v>
+        <v>318.8096170988189</v>
       </c>
       <c r="X7" t="n">
-        <v>490.587201891432</v>
+        <v>318.8096170988189</v>
       </c>
       <c r="Y7" t="n">
-        <v>269.7946227479018</v>
+        <v>318.8096170988189</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.9389192203166</v>
+        <v>1239.348663564705</v>
       </c>
       <c r="C8" t="n">
-        <v>808.9389192203166</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="D8" t="n">
-        <v>808.9389192203166</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="E8" t="n">
-        <v>808.9389192203166</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F8" t="n">
-        <v>397.9530144307091</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457208</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="V8" t="n">
-        <v>1572.544009457208</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="W8" t="n">
-        <v>1572.544009457208</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="X8" t="n">
-        <v>1199.078251196128</v>
+        <v>1782.718007305298</v>
       </c>
       <c r="Y8" t="n">
-        <v>808.9389192203166</v>
+        <v>1625.948503628827</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>904.8600091750928</v>
+        <v>772.0606556145503</v>
       </c>
       <c r="C9" t="n">
-        <v>730.4069798939659</v>
+        <v>597.6076263334234</v>
       </c>
       <c r="D9" t="n">
-        <v>581.4725702327146</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>69.80729798300615</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>214.3836900926282</v>
       </c>
       <c r="K9" t="n">
-        <v>508.4654164929048</v>
+        <v>427.1868157183641</v>
       </c>
       <c r="L9" t="n">
-        <v>766.0165520528924</v>
+        <v>684.7379512783521</v>
       </c>
       <c r="M9" t="n">
-        <v>1085.923447521402</v>
+        <v>1004.644846746862</v>
       </c>
       <c r="N9" t="n">
-        <v>1428.705971516033</v>
+        <v>1347.427370741494</v>
       </c>
       <c r="O9" t="n">
-        <v>1720.065217770599</v>
+        <v>1638.78661699606</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260213</v>
+        <v>1853.295032556961</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>2154.745546059892</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>2029.495166406375</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.495166406371</v>
+        <v>1834.784844880351</v>
       </c>
       <c r="U9" t="n">
-        <v>1978.076610125592</v>
+        <v>1606.683255013616</v>
       </c>
       <c r="V9" t="n">
-        <v>1742.924501893849</v>
+        <v>1371.531146781873</v>
       </c>
       <c r="W9" t="n">
-        <v>1488.687145165648</v>
+        <v>1117.293790053671</v>
       </c>
       <c r="X9" t="n">
-        <v>1280.835644960115</v>
+        <v>909.4422898481384</v>
       </c>
       <c r="Y9" t="n">
-        <v>1073.075346195161</v>
+        <v>909.4422898481384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>657.1486340425107</v>
+        <v>656.421706435714</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2124511146038</v>
+        <v>656.421706435714</v>
       </c>
       <c r="D10" t="n">
-        <v>488.2124511146038</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="E10" t="n">
-        <v>340.2993575322107</v>
+        <v>358.3919734409851</v>
       </c>
       <c r="F10" t="n">
-        <v>193.4094100343004</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="G10" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>58.69630920174252</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>213.7203003246709</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>467.624070672889</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>745.7191196640795</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1022.63630638511</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1262.397853152954</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1444.034594271088</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="T10" t="n">
-        <v>1486.355378693647</v>
+        <v>1063.572035770499</v>
       </c>
       <c r="U10" t="n">
-        <v>1422.042871428888</v>
+        <v>774.4457147445223</v>
       </c>
       <c r="V10" t="n">
-        <v>1167.358383223002</v>
+        <v>774.4457147445223</v>
       </c>
       <c r="W10" t="n">
-        <v>877.9412131860408</v>
+        <v>774.4457147445223</v>
       </c>
       <c r="X10" t="n">
-        <v>877.9412131860408</v>
+        <v>774.4457147445223</v>
       </c>
       <c r="Y10" t="n">
-        <v>657.1486340425107</v>
+        <v>656.421706435714</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,16 +5127,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263528</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356212</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232855</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X13" t="n">
-        <v>1398.968683817745</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093768</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5279,19 +5279,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5367,13 +5367,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5513,13 +5513,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>551.354624631591</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C22" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W22" t="n">
-        <v>1181.785219503378</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X22" t="n">
-        <v>953.7956686053609</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.0030894618308</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6075,19 +6075,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6376,7 +6376,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6786,10 +6786,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,28 +7351,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,19 +7640,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>152.8089368603739</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484686</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724264</v>
+        <v>34.66253762724398</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>230.5062162263308</v>
       </c>
       <c r="L6" t="n">
-        <v>96.17528256277456</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>134.3309336635635</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>56.27460493020891</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>141.8304999279935</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>331.8507377804069</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>119.0745931339331</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>208.6055044105655</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>357.9020177436151</v>
       </c>
     </row>
     <row r="3">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>213.9468079295564</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.1181252153569</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.34424953498208</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>37.12601365260468</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1355802.271882956</v>
+        <v>1355802.271882955</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84626.07044716092</v>
+        <v>84626.07044716091</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26329,19 +26329,19 @@
         <v>100893.3249612507</v>
       </c>
       <c r="H2" t="n">
+        <v>100893.3249612508</v>
+      </c>
+      <c r="I2" t="n">
         <v>100893.3249612507</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>100893.3249612508</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100893.3249612507</v>
       </c>
       <c r="K2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996542</v>
+        <v>216004.0468996476</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.511296058</v>
+        <v>167084.5112960655</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838365</v>
+        <v>50221.67010838206</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064496</v>
+        <v>59784.02116064713</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>195959.7647260689</v>
       </c>
       <c r="C4" t="n">
-        <v>220711.7529307684</v>
+        <v>220711.7529307702</v>
       </c>
       <c r="D4" t="n">
-        <v>173824.4120003228</v>
+        <v>173824.4120003225</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26433,31 +26433,31 @@
         <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
+        <v>22207.61133994855</v>
+      </c>
+      <c r="M4" t="n">
         <v>22207.61133994854</v>
       </c>
-      <c r="M4" t="n">
-        <v>22207.61133994853</v>
-      </c>
       <c r="N4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994854</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.6113399485</v>
+        <v>22207.61133994854</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994855</v>
+        <v>22207.61133994859</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790134</v>
+        <v>72511.97598790085</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-759676.3972113669</v>
+        <v>-760036.4802270844</v>
       </c>
       <c r="C6" t="n">
-        <v>-406597.5545852886</v>
+        <v>-406597.5545852833</v>
       </c>
       <c r="D6" t="n">
-        <v>-323477.7839192176</v>
+        <v>-323477.7839192249</v>
       </c>
       <c r="E6" t="n">
-        <v>-615889.1645137765</v>
+        <v>-615923.9024392111</v>
       </c>
       <c r="F6" t="n">
-        <v>-14445.95693951139</v>
+        <v>-14480.69486494706</v>
       </c>
       <c r="G6" t="n">
-        <v>-14445.95693951145</v>
+        <v>-14480.69486494713</v>
       </c>
       <c r="H6" t="n">
-        <v>-14445.95693951142</v>
+        <v>-14480.6948649471</v>
       </c>
       <c r="I6" t="n">
-        <v>-14445.95693951145</v>
+        <v>-14480.69486494715</v>
       </c>
       <c r="J6" t="n">
-        <v>-63510.90166805613</v>
+        <v>-63545.63959349172</v>
       </c>
       <c r="K6" t="n">
-        <v>-64667.62704789505</v>
+        <v>-64702.36497332914</v>
       </c>
       <c r="L6" t="n">
-        <v>-82525.52712147331</v>
+        <v>-82525.52712147561</v>
       </c>
       <c r="M6" t="n">
-        <v>-179887.8865124264</v>
+        <v>-179887.8865124262</v>
       </c>
       <c r="N6" t="n">
-        <v>-22741.50596082842</v>
+        <v>-22741.50596082849</v>
       </c>
       <c r="O6" t="n">
-        <v>-22741.50596082849</v>
+        <v>-22741.50596082848</v>
       </c>
       <c r="P6" t="n">
-        <v>-22741.50596082848</v>
+        <v>-22741.50596082851</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836647</v>
+        <v>716.4483122836594</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361424</v>
+        <v>382.6612299361362</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>167.97837137076</v>
+        <v>167.9783713707549</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540194</v>
+        <v>137.2623522540256</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698224</v>
+        <v>195.1356427698162</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900208</v>
+        <v>159.4537267900282</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698224</v>
+        <v>195.1356427698162</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900208</v>
+        <v>159.4537267900294</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698224</v>
+        <v>195.1356427698162</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900208</v>
+        <v>159.4537267900282</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.42215399060063</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>161.1255962679035</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,13 +27464,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>139.1780715023389</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681227</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>200.3707318856057</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,28 +27537,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>26.22967910936643</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>67.32519953665879</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>54.09559125926609</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476375</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926212</v>
+        <v>143.3876437926216</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
-        <v>187.7039968069631</v>
+        <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.57670871991121</v>
+        <v>3.576708719917406</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>141.6850007338347</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.33890406437009</v>
+        <v>36.33890406437048</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,16 +27746,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>243.698367362462</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6990233854882</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>49.07264212054706</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.202352810694</v>
+        <v>119.2023528106944</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443856</v>
+        <v>57.59506862860033</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>60.83275512993697</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>231.0361300163478</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>30.52536575861512</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>174.9162032500973</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>222.5656756236057</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>101.7408851263746</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29044,13 +29044,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235836</v>
+        <v>2.880194220235815</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799026</v>
+        <v>29.49678905799005</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756422</v>
+        <v>111.0386876756414</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997415</v>
+        <v>244.4528841997397</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423245</v>
+        <v>366.3715055423218</v>
       </c>
       <c r="L5" t="n">
-        <v>454.516249409867</v>
+        <v>454.5162494098637</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739861</v>
+        <v>505.7369033739824</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022311</v>
+        <v>513.9202552022274</v>
       </c>
       <c r="O5" t="n">
-        <v>485.280323924761</v>
+        <v>485.2803239247575</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126888</v>
+        <v>414.1755291126858</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004928</v>
+        <v>311.0285736004906</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868895</v>
+        <v>180.9230001868881</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362418</v>
+        <v>65.6324257936237</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908238</v>
+        <v>12.60805019908229</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188668</v>
+        <v>0.2304155376188651</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044109</v>
+        <v>1.541039766044098</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574179</v>
+        <v>14.88319984574168</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704499</v>
+        <v>53.0577287870446</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594568</v>
+        <v>145.5944631594558</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844121</v>
+        <v>248.8441274844103</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754984</v>
+        <v>334.6016386754959</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945972</v>
+        <v>390.4643301945944</v>
       </c>
       <c r="N6" t="n">
-        <v>400.798759151972</v>
+        <v>400.7987591519691</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306788</v>
+        <v>366.6525622306762</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510019</v>
+        <v>294.2710058509997</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462621</v>
+        <v>196.7123743462606</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158076</v>
+        <v>95.67964442158006</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963508</v>
+        <v>28.62413775963487</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572525</v>
+        <v>6.211471688572479</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344809</v>
+        <v>0.1013841951344802</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970543</v>
+        <v>1.291955972970533</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513811</v>
+        <v>11.48666310513802</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351415</v>
+        <v>38.85263962351387</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901736</v>
+        <v>91.34128728901671</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505776</v>
+        <v>150.1017939505765</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178205</v>
+        <v>192.0786180178191</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902824</v>
+        <v>202.5199712902809</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273924</v>
+        <v>197.7044990273909</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522364</v>
+        <v>182.6121042522351</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036372</v>
+        <v>156.2562024036361</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548334</v>
+        <v>108.1836951548326</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647548</v>
+        <v>58.09103856647506</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258663</v>
+        <v>22.51526909258647</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874136</v>
+        <v>5.520175520874095</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839332</v>
+        <v>0.07047032579839281</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
+        <v>168.9203199809854</v>
+      </c>
+      <c r="N4" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="N4" t="n">
-        <v>99.08507489005515</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305519</v>
+        <v>63.40697967305343</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973439</v>
+        <v>146.2816544973413</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398798</v>
+        <v>218.7498344398765</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467133</v>
+        <v>275.3906701467097</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056402</v>
+        <v>284.5071916056365</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030743</v>
+        <v>255.1821125030708</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574192</v>
+        <v>182.9425333574162</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604336</v>
+        <v>88.72288372604109</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649279014</v>
+        <v>18.75683649278906</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100531</v>
+        <v>341.5089047363821</v>
       </c>
       <c r="L6" t="n">
-        <v>292.2225414583987</v>
+        <v>196.0472588956217</v>
       </c>
       <c r="M6" t="n">
-        <v>382.6612299361424</v>
+        <v>248.330296272576</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686388</v>
+        <v>269.4570470686358</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862344</v>
+        <v>224.0563177862317</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366716</v>
+        <v>160.2965984366695</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026024055</v>
+        <v>56.73060026023913</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8323021246947</v>
+        <v>127.8323021246936</v>
       </c>
       <c r="L7" t="n">
-        <v>219.6686432781367</v>
+        <v>219.6686432781353</v>
       </c>
       <c r="M7" t="n">
-        <v>242.103848252123</v>
+        <v>242.1038482521215</v>
       </c>
       <c r="N7" t="n">
-        <v>241.836671406621</v>
+        <v>241.8366714066195</v>
       </c>
       <c r="O7" t="n">
-        <v>207.1972321662761</v>
+        <v>207.1972321662747</v>
       </c>
       <c r="P7" t="n">
-        <v>153.5347616685307</v>
+        <v>153.5347616685296</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.02165190313897</v>
+        <v>22.02165190313819</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>172.7419126813485</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1432842295773</v>
+        <v>214.952652147208</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>358.5056671612264</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>304.4954681847784</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.85280893410663</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>15.48193198348422</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>156.58989002316</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>256.46845489719</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>280.9040898900914</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>279.7143300212427</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
